--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_15.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12047160.89342732</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24295412.1082302</v>
+        <v>22865805.74474841</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2676256.236054661</v>
+        <v>3546179.88565272</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>214.0546037115792</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>228.2791569798279</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>222.0152160730528</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>220.9472418750054</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>222.1041760324342</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>224.4102714990878</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8052,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>124.4392452907996</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>133.742223194437</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>133.0424782891216</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>135.7019048619076</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>124.7393437063988</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>136.5563672569107</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>129.1268734863555</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>136.7413260305349</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>131.7205602141891</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>135.5896671967105</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>124.4287531140874</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>135.4483645121045</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9319,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9793,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10504,16 +10504,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10522,10 +10522,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10741,28 +10741,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10978,28 +10978,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,19 +11215,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22565,34 +22565,34 @@
         <v>338.9889007429445</v>
       </c>
       <c r="I2" t="n">
-        <v>208.6467463822456</v>
+        <v>208.6467463822455</v>
       </c>
       <c r="J2" t="n">
-        <v>177.0190258115284</v>
+        <v>7.922410639454565</v>
       </c>
       <c r="K2" t="n">
-        <v>214.0546037115793</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>228.279156979828</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>222.0152160730529</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9472418750055</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>222.1041760324344</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>224.4102714990879</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>217.1821080973806</v>
+        <v>4.867117437475767</v>
       </c>
       <c r="R2" t="n">
-        <v>212.6051885295649</v>
+        <v>146.8887686565824</v>
       </c>
       <c r="S2" t="n">
         <v>207.9389049302515</v>
@@ -22644,34 +22644,34 @@
         <v>111.9902728985985</v>
       </c>
       <c r="I3" t="n">
-        <v>98.64835865463272</v>
+        <v>88.52261150604778</v>
       </c>
       <c r="J3" t="n">
-        <v>124.4392452907996</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>133.7422231944371</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>133.0424782891217</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7019048619078</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>124.739343706399</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5563672569108</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1268734863556</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.741326030535</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>144.1033706945348</v>
+        <v>98.5817008832139</v>
       </c>
       <c r="S3" t="n">
         <v>171.2116449385346</v>
@@ -22726,28 +22726,28 @@
         <v>154.8104543848956</v>
       </c>
       <c r="J4" t="n">
-        <v>125.4907540397727</v>
+        <v>91.85451271704935</v>
       </c>
       <c r="K4" t="n">
-        <v>126.5406274173932</v>
+        <v>19.79686107274059</v>
       </c>
       <c r="L4" t="n">
-        <v>131.7205602141892</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>135.5896671967106</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4287531140874</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>135.4483645121045</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>135.1539915655949</v>
+        <v>0.1474282515537202</v>
       </c>
       <c r="Q4" t="n">
-        <v>149.7228888072868</v>
+        <v>84.37993042953528</v>
       </c>
       <c r="R4" t="n">
         <v>176.3364561889816</v>
@@ -22805,31 +22805,31 @@
         <v>174.0885230584365</v>
       </c>
       <c r="J5" t="n">
-        <v>100.9387195582597</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>100.0299464227919</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>61.00144891149961</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>95.50771753390021</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.3816583481039</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>156.2970892917925</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S5" t="n">
         <v>187.5123304152058</v>
@@ -22905,7 +22905,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R6" t="n">
         <v>114.3252943440434</v>
@@ -22972,7 +22972,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -23042,16 +23042,16 @@
         <v>170.0563803341062</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -23060,13 +23060,13 @@
         <v>53.44993733213093</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.7272407629755</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -23118,13 +23118,13 @@
         <v>106.817768233445</v>
       </c>
       <c r="I9" t="n">
-        <v>80.20868489375378</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>16.75508344424118</v>
@@ -23139,13 +23139,13 @@
         <v>9.130000058643361</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>110.8508838462542</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S9" t="n">
         <v>161.2636171197674</v>
@@ -23200,28 +23200,28 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>93.74601906876785</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>112.1247463593087</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R10" t="n">
         <v>156.1475068297698</v>
@@ -23279,28 +23279,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>134.8218408634681</v>
@@ -23355,13 +23355,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I12" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,10 +23376,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>102.9682853879423</v>
@@ -23437,25 +23437,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>103.2119976362414</v>
@@ -23516,7 +23516,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
         <v>56.54227989916996</v>
@@ -23525,13 +23525,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
         <v>46.34579576917247</v>
@@ -23592,10 +23592,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I15" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
         <v>26.75787480980772</v>
@@ -23674,7 +23674,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K16" t="n">
         <v>62.00809140979796</v>
@@ -23689,10 +23689,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>103.2119976362414</v>
@@ -23753,31 +23753,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
@@ -23829,13 +23829,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>75.83750674330533</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,13 +23850,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S18" t="n">
         <v>158.905408270449</v>
@@ -23911,28 +23911,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>86.2208375662932</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
         <v>151.3616578248528</v>
@@ -23990,31 +23990,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
         <v>179.7218745449422</v>
@@ -24066,13 +24066,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I21" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,10 +24087,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>102.9682853879423</v>
@@ -24148,25 +24148,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>103.2119976362414</v>
@@ -24227,31 +24227,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R23" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
         <v>179.7218745449422</v>
@@ -24303,13 +24303,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83750674330533</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,13 +24324,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R24" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S24" t="n">
         <v>158.905408270449</v>
@@ -24385,28 +24385,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>86.2208375662932</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R25" t="n">
         <v>151.3616578248528</v>
@@ -24464,31 +24464,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S26" t="n">
         <v>179.7218745449422</v>
@@ -24540,13 +24540,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83750674330533</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,13 +24561,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S27" t="n">
         <v>158.905408270449</v>
@@ -24622,28 +24622,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>86.2208375662932</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R28" t="n">
         <v>151.3616578248528</v>
@@ -24701,31 +24701,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S29" t="n">
         <v>179.7218745449422</v>
@@ -24777,13 +24777,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83750674330533</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,13 +24798,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S30" t="n">
         <v>158.905408270449</v>
@@ -24859,28 +24859,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>86.2208375662932</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -24938,31 +24938,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
         <v>179.7218745449422</v>
@@ -25014,13 +25014,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I33" t="n">
-        <v>75.83750674330533</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,10 +25035,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>102.9682853879423</v>
@@ -25096,28 +25096,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>86.2208375662932</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25175,28 +25175,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>134.8218408634681</v>
@@ -25251,13 +25251,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,10 +25272,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>102.9682853879423</v>
@@ -25333,28 +25333,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>86.2208375662932</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
         <v>151.3616578248528</v>
@@ -25412,31 +25412,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S38" t="n">
         <v>179.7218745449422</v>
@@ -25488,13 +25488,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,10 +25509,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>102.9682853879423</v>
@@ -25570,28 +25570,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>86.2208375662932</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
@@ -25649,31 +25649,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
         <v>179.7218745449422</v>
@@ -25725,13 +25725,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83750674330533</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,13 +25746,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S42" t="n">
         <v>158.905408270449</v>
@@ -25807,28 +25807,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>86.2208375662932</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25886,31 +25886,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -25962,13 +25962,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83750674330533</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,13 +25983,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S45" t="n">
         <v>158.905408270449</v>
@@ -26044,28 +26044,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>86.2208375662932</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R46" t="n">
         <v>151.3616578248528</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9914.987739757686</v>
+        <v>376516.1549301873</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>197240.0494305209</v>
+        <v>303955.7733530647</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>218248.0280864818</v>
+        <v>330195.524730002</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>262175.564888956</v>
+        <v>335785.055037261</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>262175.564888956</v>
+        <v>289225.0176274252</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>262175.564888956</v>
+        <v>315708.6940219029</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>262175.564888956</v>
+        <v>327335.1042003287</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>262175.564888956</v>
+        <v>311703.3483489143</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>262175.564888956</v>
+        <v>301630.6781755371</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>262175.564888956</v>
+        <v>279941.3392537082</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>262175.564888956</v>
+        <v>299114.4524022231</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>262175.564888956</v>
+        <v>292567.135908607</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262175.564888956</v>
+        <v>284204.8905944076</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2704.087565388461</v>
+        <v>81261.48053476622</v>
       </c>
       <c r="C2" t="n">
-        <v>53792.74075377843</v>
+        <v>76660.39588003783</v>
       </c>
       <c r="D2" t="n">
-        <v>59522.1894781314</v>
+        <v>83510.93875888569</v>
       </c>
       <c r="E2" t="n">
-        <v>71502.42678789714</v>
+        <v>71502.4267878971</v>
       </c>
       <c r="F2" t="n">
-        <v>71502.42678789714</v>
+        <v>71502.42678789711</v>
       </c>
       <c r="G2" t="n">
-        <v>71502.42678789711</v>
+        <v>87275.88896253381</v>
       </c>
       <c r="H2" t="n">
-        <v>71502.42678789713</v>
+        <v>77298.73808899768</v>
       </c>
       <c r="I2" t="n">
-        <v>71502.42678789711</v>
+        <v>82973.81160209996</v>
       </c>
       <c r="J2" t="n">
-        <v>71502.42678789713</v>
+        <v>85465.1852117626</v>
       </c>
       <c r="K2" t="n">
-        <v>71502.42678789713</v>
+        <v>82115.52324360241</v>
       </c>
       <c r="L2" t="n">
-        <v>71502.42678789711</v>
+        <v>79957.09392073588</v>
       </c>
       <c r="M2" t="n">
-        <v>71502.42678789711</v>
+        <v>75309.37843748686</v>
       </c>
       <c r="N2" t="n">
-        <v>71502.42678789711</v>
+        <v>79417.90268359717</v>
       </c>
       <c r="O2" t="n">
-        <v>71502.42678789713</v>
+        <v>78014.90629210803</v>
       </c>
       <c r="P2" t="n">
-        <v>71502.42678789713</v>
+        <v>76222.99658192243</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.62968807397</v>
+        <v>11372.62968807423</v>
       </c>
       <c r="C3" t="n">
-        <v>203044.1822108271</v>
+        <v>203044.1822108269</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727416</v>
+        <v>47420.72226727411</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>78557.39296937769</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22867.65512625937</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>23988.74928075429</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -26430,34 +26430,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15773.46217463673</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5796.311301100544</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11471.38481420285</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>13962.75842386551</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>10613.09645570532</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>8454.667132838777</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3806.951649589757</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7915.475895700079</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6512.479504210932</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4720.569794025349</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.88516240442</v>
+        <v>33884.88516240443</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26476,40 +26476,40 @@
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
         <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42553.42728508993</v>
+        <v>-42553.42728509012</v>
       </c>
       <c r="C6" t="n">
-        <v>-187997.2462881953</v>
+        <v>-187997.2462881951</v>
       </c>
       <c r="D6" t="n">
         <v>-2071.542008566255</v>
       </c>
       <c r="E6" t="n">
-        <v>17109.60195736565</v>
+        <v>17109.60195736566</v>
       </c>
       <c r="F6" t="n">
-        <v>64530.32422463981</v>
+        <v>64530.32422463979</v>
       </c>
       <c r="G6" t="n">
-        <v>64530.32422463979</v>
+        <v>64530.32422463974</v>
       </c>
       <c r="H6" t="n">
         <v>64530.3242246398</v>
       </c>
       <c r="I6" t="n">
-        <v>64530.32422463979</v>
+        <v>64530.32422463978</v>
       </c>
       <c r="J6" t="n">
-        <v>64530.3242246398</v>
+        <v>64530.32422463976</v>
       </c>
       <c r="K6" t="n">
-        <v>64530.3242246398</v>
+        <v>64530.32422463976</v>
       </c>
       <c r="L6" t="n">
-        <v>64530.32422463979</v>
+        <v>64530.32422463977</v>
       </c>
       <c r="M6" t="n">
-        <v>64530.32422463979</v>
+        <v>64530.32422463977</v>
       </c>
       <c r="N6" t="n">
-        <v>64530.32422463979</v>
+        <v>64530.32422463977</v>
       </c>
       <c r="O6" t="n">
-        <v>64530.3242246398</v>
+        <v>64530.32422463977</v>
       </c>
       <c r="P6" t="n">
-        <v>64530.3242246398</v>
+        <v>64530.32422463976</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>11.80207166992787</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>11.80207166992787</v>
       </c>
       <c r="C3" t="n">
-        <v>222.9779664560666</v>
+        <v>222.9779664560663</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057782</v>
+        <v>59.02482598057776</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04744551425096528</v>
+        <v>0.04744551425096627</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4859013728226984</v>
+        <v>0.4859013728227085</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829143188160341</v>
+        <v>1.829143188160379</v>
       </c>
       <c r="J2" t="n">
-        <v>4.026878715157869</v>
+        <v>4.026878715157952</v>
       </c>
       <c r="K2" t="n">
-        <v>6.03524733340123</v>
+        <v>6.035247333401356</v>
       </c>
       <c r="L2" t="n">
-        <v>7.487257990159211</v>
+        <v>7.487257990159367</v>
       </c>
       <c r="M2" t="n">
-        <v>8.331017154219815</v>
+        <v>8.331017154219987</v>
       </c>
       <c r="N2" t="n">
-        <v>8.465821721585371</v>
+        <v>8.465821721585547</v>
       </c>
       <c r="O2" t="n">
-        <v>7.994035389252334</v>
+        <v>7.9940353892525</v>
       </c>
       <c r="P2" t="n">
-        <v>6.822724256181627</v>
+        <v>6.822724256181769</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.123581777068932</v>
+        <v>5.123581777069037</v>
       </c>
       <c r="R2" t="n">
-        <v>2.980349284567201</v>
+        <v>2.980349284567263</v>
       </c>
       <c r="S2" t="n">
-        <v>1.081164655993873</v>
+        <v>1.081164655993895</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2076927386336007</v>
+        <v>0.207692738633605</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003795641140077222</v>
+        <v>0.003795641140077301</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02538558812022168</v>
+        <v>0.02538558812022221</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2451713378979305</v>
+        <v>0.2451713378979356</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8740213453672817</v>
+        <v>0.8740213453672999</v>
       </c>
       <c r="J3" t="n">
-        <v>2.398381375867085</v>
+        <v>2.398381375867135</v>
       </c>
       <c r="K3" t="n">
-        <v>4.099215779921938</v>
+        <v>4.099215779922023</v>
       </c>
       <c r="L3" t="n">
-        <v>5.511901490752519</v>
+        <v>5.511901490752634</v>
       </c>
       <c r="M3" t="n">
-        <v>6.432129060110555</v>
+        <v>6.432129060110688</v>
       </c>
       <c r="N3" t="n">
-        <v>6.602368376934323</v>
+        <v>6.60236837693446</v>
       </c>
       <c r="O3" t="n">
-        <v>6.039877187533621</v>
+        <v>6.039877187533746</v>
       </c>
       <c r="P3" t="n">
-        <v>4.847533927974613</v>
+        <v>4.847533927974713</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.240448055486544</v>
+        <v>3.240448055486611</v>
       </c>
       <c r="R3" t="n">
-        <v>1.576133269429203</v>
+        <v>1.576133269429236</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4715261653032402</v>
+        <v>0.47152616530325</v>
       </c>
       <c r="T3" t="n">
-        <v>0.102321734572297</v>
+        <v>0.1023217345722991</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001670104481593532</v>
+        <v>0.001670104481593567</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0212824243228203</v>
+        <v>0.02128242432282075</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1892200998883479</v>
+        <v>0.1892200998883519</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6400205423626326</v>
+        <v>0.6400205423626459</v>
       </c>
       <c r="J4" t="n">
-        <v>1.504667399623395</v>
+        <v>1.504667399623427</v>
       </c>
       <c r="K4" t="n">
-        <v>2.472630753142213</v>
+        <v>2.472630753142264</v>
       </c>
       <c r="L4" t="n">
-        <v>3.164116067049121</v>
+        <v>3.164116067049187</v>
       </c>
       <c r="M4" t="n">
-        <v>3.336116750894459</v>
+        <v>3.336116750894528</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256791351145767</v>
+        <v>3.256791351145835</v>
       </c>
       <c r="O4" t="n">
-        <v>3.008173939738275</v>
+        <v>3.008173939738337</v>
       </c>
       <c r="P4" t="n">
-        <v>2.574012483552738</v>
+        <v>2.574012483552792</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.782112822159071</v>
+        <v>1.782112822159108</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9569351881879018</v>
+        <v>0.9569351881879217</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3708946129713319</v>
+        <v>0.3708946129713396</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09093399483386855</v>
+        <v>0.09093399483387044</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001160859508517472</v>
+        <v>0.001160859508517497</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31291,7 +31291,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31300,7 +31300,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31315,7 +31315,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31385,7 +31385,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31452,7 +31452,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31464,13 +31464,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31522,7 +31522,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31546,7 +31546,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31555,7 +31555,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,7 +31595,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31628,7 +31628,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31680,7 +31680,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31695,13 +31695,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -31756,16 +31756,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
         <v>225.7600302817866</v>
@@ -31783,13 +31783,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31856,22 +31856,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,37 +31908,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
         <v>25.93173355231669</v>
@@ -31996,7 +31996,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
@@ -32020,13 +32020,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32075,7 +32075,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32105,7 +32105,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
         <v>0.04525771959877963</v>
@@ -32148,13 +32148,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
         <v>67.00516676073742</v>
@@ -32169,10 +32169,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
         <v>48.29300399320443</v>
@@ -32230,16 +32230,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
         <v>225.7600302817866</v>
@@ -32257,13 +32257,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
         <v>111.0835641645513</v>
@@ -32330,22 +32330,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,37 +32382,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
         <v>25.93173355231669</v>
@@ -32467,16 +32467,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
         <v>225.7600302817866</v>
@@ -32494,13 +32494,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
         <v>111.0835641645513</v>
@@ -32567,22 +32567,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,37 +32619,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
         <v>25.93173355231669</v>
@@ -32704,16 +32704,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M23" t="n">
         <v>225.7600302817866</v>
@@ -32731,13 +32731,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I24" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
         <v>111.0835641645513</v>
@@ -32804,22 +32804,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S24" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,37 +32856,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R25" t="n">
         <v>25.93173355231669</v>
@@ -32941,16 +32941,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
         <v>225.7600302817866</v>
@@ -32968,13 +32968,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
         <v>0.1028570752958528</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
         <v>111.0835641645513</v>
@@ -33041,22 +33041,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,37 +33093,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
         <v>25.93173355231669</v>
@@ -33178,16 +33178,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33205,13 +33205,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
         <v>111.0835641645513</v>
@@ -33278,22 +33278,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,37 +33330,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33415,16 +33415,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33442,13 +33442,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
         <v>111.0835641645513</v>
@@ -33515,22 +33515,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,37 +33567,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33652,16 +33652,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
         <v>225.7600302817866</v>
@@ -33679,13 +33679,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
         <v>111.0835641645513</v>
@@ -33752,22 +33752,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,37 +33804,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33889,16 +33889,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
         <v>225.7600302817866</v>
@@ -33916,13 +33916,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
         <v>111.0835641645513</v>
@@ -33989,22 +33989,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,37 +34041,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34126,16 +34126,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34153,13 +34153,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34226,22 +34226,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,37 +34278,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34363,16 +34363,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
         <v>225.7600302817866</v>
@@ -34390,13 +34390,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
         <v>111.0835641645513</v>
@@ -34463,22 +34463,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,37 +34515,37 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
         <v>25.93173355231669</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112580.0289603634</v>
+        <v>136088.2551012899</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12047160.89342732</v>
+        <v>12167868.05710858</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22865805.74474841</v>
+        <v>22947228.26771752</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3546179.88565272</v>
+        <v>3471716.820802534</v>
       </c>
     </row>
     <row r="11">
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>214.0546037115792</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>228.2791569798279</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>222.0152160730528</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9472418750054</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>222.1041760324342</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>224.4102714990878</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>124.4392452907996</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>133.742223194437</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>133.0424782891216</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7019048619076</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>124.7393437063988</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5563672569107</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1268734863555</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.7413260305349</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>131.7205602141891</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>135.5896671967105</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4287531140874</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>135.4483645121045</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8219,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>99.38709390771217</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>78.20219848086228</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>61.64290276170749</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9103,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679384</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151258</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899257</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180407</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151258</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180407</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180407</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679384</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151258</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899257</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180407</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679384</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180407</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899257</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040726</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180407</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679384</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,25 +10983,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899257</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856002</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215854</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040726</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180407</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899257</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856002</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11455,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11470,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2552920008841</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>338.9889007429445</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>208.6467463822455</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>7.922410639454565</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.867117437475767</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>146.8887686565824</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>207.9389049302515</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>222.8881568254978</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3418572666964</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3181315750904</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.9902728985985</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>88.52261150604778</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>98.5817008832139</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.2116449385346</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.0624069602493</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9397119764932</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9696969341359</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0379524075512</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>154.8104543848956</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>91.85451271704935</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>19.79686107274059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1474282515537202</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.37993042953528</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.3364561889816</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.6457034240009</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.8546554334476</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3178684969824</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22905,7 +22907,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>114.3252943440434</v>
@@ -22972,7 +22974,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -23033,49 +23035,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>414.3406165929539</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>329.6214812214793</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>173.3837227180163</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>97.7044617900775</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>83.93651754288217</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>61.40621785032832</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>57.73942214949923</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>67.99165989453405</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>92.87880449446453</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>118.4074541392576</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>155.1487094361692</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>187.0957390720419</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>218.8841652272833</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.268683234062</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,49 +23114,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.8287370867813</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>107.2637524457188</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>71.67284513224863</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>54.71574566779194</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>26.7816267814875</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>11.7005031530698</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>20.11696897926959</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.67399088986284</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>74.27054889129279</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>68.19631326697174</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>162.121356964899</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>198.0898037376351</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9075149706834</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.559405034964</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>158.3900844312768</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>142.4718579988877</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>62.84687544559103</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>78.87216858632236</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>70.72134458638538</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>71.27454703832609</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>77.45546952732445</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>85.53105132392307</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>50.0235787634169</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>157.8882404316673</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>216.4954345993403</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>226.1015900460765</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2954889388457</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23270,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H11" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679384</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R11" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S11" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I12" t="n">
-        <v>75.83750674330534</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151258</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K12" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R12" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S12" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J13" t="n">
-        <v>86.22083756629321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899257</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856002</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215854</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040726</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180407</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S13" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T13" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H14" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I14" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679384</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L14" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R14" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I15" t="n">
-        <v>75.83750674330534</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151258</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K15" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R15" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I16" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J16" t="n">
-        <v>86.22083756629321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899257</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856002</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215854</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040726</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180407</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.2119976362414</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T16" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048568</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,19 +23825,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I18" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356988</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23920,31 +23922,31 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848996</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048568</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I21" t="n">
-        <v>75.83750674330534</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151258</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
-        <v>102.9682853879423</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J22" t="n">
-        <v>86.22083756629321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899257</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856002</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215854</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040726</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180407</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L23" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048568</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,19 +24299,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I24" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R24" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356988</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848996</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L26" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048568</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I27" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K27" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R27" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356988</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848996</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L29" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048568</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,19 +24773,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I30" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356988</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24868,31 +24870,31 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848996</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048568</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,19 +25010,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I33" t="n">
-        <v>65.71175959472041</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151258</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R33" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356988</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215854</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848996</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679384</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R35" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83750674330534</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151258</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K36" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R36" t="n">
-        <v>102.9682853879423</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356988</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25342,10 +25344,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848996</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L38" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048568</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83750674330534</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151258</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K39" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R39" t="n">
-        <v>102.9682853879423</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,19 +25563,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356988</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848996</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>32.8711910981084</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048568</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I42" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K42" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R42" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356988</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25819,28 +25821,28 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040726</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180407</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848996</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486122</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601006</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048568</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356988</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215854</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040726</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180407</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848996</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>376516.1549301873</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>330195.524730002</v>
+        <v>231434.5411851175</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>262175.564888956</v>
+        <v>266247.0164708933</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>262175.564888956</v>
+        <v>268991.4207227589</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>335785.055037261</v>
+        <v>320217.5571937765</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>289225.0176274252</v>
+        <v>299265.6012260412</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>315708.6940219029</v>
+        <v>296920.9395268711</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>327335.1042003287</v>
+        <v>300274.3486271901</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>311703.3483489143</v>
+        <v>320217.5571937765</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>301630.6781755371</v>
+        <v>298935.6993857197</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>279941.3392537082</v>
+        <v>283442.5906322608</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>299114.4524022231</v>
+        <v>311807.1670022476</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>292567.135908607</v>
+        <v>321368.8363041368</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>284204.8905944076</v>
+        <v>309990.8679923426</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81261.48053476622</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="C2" t="n">
-        <v>76660.39588003783</v>
+        <v>76660.3958800378</v>
       </c>
       <c r="D2" t="n">
-        <v>83510.93875888569</v>
+        <v>61334.73507935579</v>
       </c>
       <c r="E2" t="n">
-        <v>71502.4267878971</v>
+        <v>72612.82267388004</v>
       </c>
       <c r="F2" t="n">
-        <v>71502.42678789711</v>
+        <v>73200.90929927978</v>
       </c>
       <c r="G2" t="n">
-        <v>87275.88896253381</v>
+        <v>84177.93854306926</v>
       </c>
       <c r="H2" t="n">
-        <v>77298.73808899768</v>
+        <v>79688.23369284028</v>
       </c>
       <c r="I2" t="n">
-        <v>82973.81160209996</v>
+        <v>79185.80618587526</v>
       </c>
       <c r="J2" t="n">
-        <v>85465.1852117626</v>
+        <v>79904.39385022935</v>
       </c>
       <c r="K2" t="n">
-        <v>82115.52324360241</v>
+        <v>84177.93854306926</v>
       </c>
       <c r="L2" t="n">
-        <v>79957.09392073588</v>
+        <v>79617.54044134282</v>
       </c>
       <c r="M2" t="n">
-        <v>75309.37843748686</v>
+        <v>76297.58856560163</v>
       </c>
       <c r="N2" t="n">
-        <v>79417.90268359717</v>
+        <v>82375.7120734559</v>
       </c>
       <c r="O2" t="n">
-        <v>78014.90629210803</v>
+        <v>84424.64120957501</v>
       </c>
       <c r="P2" t="n">
-        <v>76222.99658192243</v>
+        <v>81986.50514276198</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.62968807423</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>203044.1822108269</v>
+        <v>213791.1722776066</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>3894.578006269939</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727411</v>
+        <v>69778.64573719917</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78557.39296937769</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="C4" t="n">
         <v>22867.65512625937</v>
       </c>
       <c r="D4" t="n">
-        <v>23988.74928075429</v>
+        <v>6540.51256081306</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>588.0866253997631</v>
       </c>
       <c r="G4" t="n">
-        <v>15773.46217463673</v>
+        <v>11565.11586918922</v>
       </c>
       <c r="H4" t="n">
-        <v>5796.311301100544</v>
+        <v>7075.411018960235</v>
       </c>
       <c r="I4" t="n">
-        <v>11471.38481420285</v>
+        <v>6572.983511995229</v>
       </c>
       <c r="J4" t="n">
-        <v>13962.75842386551</v>
+        <v>7291.571176349296</v>
       </c>
       <c r="K4" t="n">
-        <v>10613.09645570532</v>
+        <v>11565.11586918922</v>
       </c>
       <c r="L4" t="n">
-        <v>8454.667132838777</v>
+        <v>7004.717767462771</v>
       </c>
       <c r="M4" t="n">
-        <v>3806.951649589757</v>
+        <v>3684.765891721599</v>
       </c>
       <c r="N4" t="n">
-        <v>7915.475895700079</v>
+        <v>9762.889399575863</v>
       </c>
       <c r="O4" t="n">
-        <v>6512.479504210932</v>
+        <v>11811.818535695</v>
       </c>
       <c r="P4" t="n">
-        <v>4720.569794025349</v>
+        <v>9373.682468881945</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.88516240443</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>38844.94123075794</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42553.42728509012</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="C6" t="n">
-        <v>-187997.2462881951</v>
+        <v>-198744.2363549748</v>
       </c>
       <c r="D6" t="n">
-        <v>-2071.542008566255</v>
+        <v>12054.70328151484</v>
       </c>
       <c r="E6" t="n">
-        <v>17109.60195736566</v>
+        <v>-4276.578280670275</v>
       </c>
       <c r="F6" t="n">
-        <v>64530.32422463979</v>
+        <v>65502.06745652886</v>
       </c>
       <c r="G6" t="n">
-        <v>64530.32422463974</v>
+        <v>65502.06745652889</v>
       </c>
       <c r="H6" t="n">
-        <v>64530.3242246398</v>
+        <v>65502.06745652889</v>
       </c>
       <c r="I6" t="n">
-        <v>64530.32422463978</v>
+        <v>65502.06745652888</v>
       </c>
       <c r="J6" t="n">
-        <v>64530.32422463976</v>
+        <v>65502.06745652889</v>
       </c>
       <c r="K6" t="n">
-        <v>64530.32422463976</v>
+        <v>65502.06745652889</v>
       </c>
       <c r="L6" t="n">
-        <v>64530.32422463977</v>
+        <v>65502.06745652889</v>
       </c>
       <c r="M6" t="n">
-        <v>64530.32422463977</v>
+        <v>65502.06745652888</v>
       </c>
       <c r="N6" t="n">
-        <v>64530.32422463977</v>
+        <v>65502.06745652888</v>
       </c>
       <c r="O6" t="n">
-        <v>64530.32422463977</v>
+        <v>65502.06745652886</v>
       </c>
       <c r="P6" t="n">
-        <v>64530.32422463976</v>
+        <v>65502.06745652888</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992787</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>239.3275793925661</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992787</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>222.9779664560663</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>4.547541266571937</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057776</v>
+        <v>86.85385259601865</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04744551425096627</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4859013728227085</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829143188160379</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.026878715157952</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.035247333401356</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.487257990159367</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.331017154219987</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.465821721585547</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.9940353892525</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.822724256181769</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.123581777069037</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.980349284567263</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.081164655993895</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.207692738633605</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003795641140077301</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02538558812022221</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2451713378979356</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8740213453672999</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.398381375867135</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.099215779922023</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.511901490752634</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.432129060110688</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.60236837693446</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.039877187533746</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.847533927974713</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.240448055486611</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.576133269429236</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.47152616530325</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1023217345722991</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001670104481593567</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02128242432282075</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1892200998883519</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6400205423626459</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.504667399623427</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.472630753142264</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.164116067049187</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.336116750894528</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256791351145835</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.008173939738337</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.574012483552792</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.782112822159108</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9569351881879217</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3708946129713396</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09093399483387044</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001160859508517497</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31291,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31300,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31315,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31385,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31434,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31452,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31464,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>0.9621209221811696</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>9.853320894287906</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>37.09216685238957</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>81.65881061897412</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>122.385389254903</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>151.8298974271051</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>168.9400153769444</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>171.6736414470917</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>162.1065515271527</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>138.354191260805</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>103.8982357351918</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>60.43682837796295</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>21.92433051420343</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>4.211684336848072</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.07696967377449355</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5147800764292931</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>4.971691790777648</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>17.72378771916646</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>48.63542818580441</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>83.12569330656706</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>111.7727529983867</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>130.4335307689485</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>122.4792754651749</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>98.30041652446741</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>65.71122519472873</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>31.96152088567139</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>9.561814138938839</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>2.074924957186493</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03386711029140088</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.4315743234947913</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>3.837088076162784</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>12.97861692837064</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>30.51230467108174</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>50.14108958421302</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>64.1633316948529</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>67.65123690927896</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>66.0426417035257</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>61.00106892451834</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>52.19695272522456</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>36.13846448827749</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>19.40515094550216</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>7.521163437631952</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>1.843999382205017</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02354041764517046</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K11" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M11" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R11" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S11" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T11" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S12" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I13" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J13" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S13" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T13" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H14" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K14" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M14" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R14" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S14" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T14" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S15" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I16" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J16" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R16" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S16" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T16" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R17" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T17" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J19" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R20" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S20" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T20" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J22" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R23" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S23" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T23" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J25" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R26" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S26" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T26" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J28" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R29" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T29" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J31" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R32" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S32" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T32" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J34" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R35" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S35" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T35" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J37" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R38" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S38" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T38" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J40" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R41" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S41" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T41" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J43" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798924</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R44" t="n">
-        <v>80.763696950664</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S44" t="n">
-        <v>29.2981950413031</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T44" t="n">
-        <v>5.628210588844949</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515411</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751896</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558784</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>40.7745838731029</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143553</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734354</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136088.2551012899</v>
+        <v>13113.69058561324</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12167868.05710858</v>
+        <v>11118553.18542603</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22947228.26771752</v>
+        <v>21897913.39603496</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3471716.820802534</v>
+        <v>4051838.632798885</v>
       </c>
     </row>
     <row r="11">
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>99.38709390771217</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>97.7044617900775</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>83.93651754288217</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>61.40621785032832</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>57.73942214949923</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>67.99165989453405</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>92.87880449446453</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>118.4074541392576</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>78.20219848086228</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>54.71574566779194</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>26.7816267814875</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>11.7005031530698</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>20.11696897926959</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.67399088986284</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>74.27054889129279</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>78.87216858632236</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>70.72134458638538</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>71.27454703832609</v>
       </c>
       <c r="N10" t="n">
         <v>61.64290276170749</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>77.45546952732445</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>85.53105132392307</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9166,22 +9166,22 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
         <v>80.70197082457096</v>
@@ -9245,7 +9245,7 @@
         <v>60.55202075660908</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
         <v>66.5883684560963</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
         <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q20" t="n">
         <v>80.70197082457096</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
         <v>24.54878065809741</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P23" t="n">
         <v>42.66898511507466</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,7 +9719,7 @@
         <v>60.55202075660908</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,19 +9798,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P25" t="n">
         <v>66.5883684560963</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
         <v>80.70197082457096</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10038,16 +10038,16 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P28" t="n">
         <v>66.5883684560963</v>
@@ -10114,22 +10114,22 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q29" t="n">
         <v>80.70197082457096</v>
@@ -10193,7 +10193,7 @@
         <v>60.55202075660908</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P31" t="n">
         <v>66.5883684560963</v>
@@ -10351,25 +10351,25 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,10 +10515,10 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
         <v>55.31770395088348</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10752,10 +10752,10 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O37" t="n">
         <v>55.31770395088348</v>
@@ -10825,22 +10825,22 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q38" t="n">
         <v>80.70197082457096</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,7 +10983,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L40" t="n">
         <v>47.4359690887577</v>
@@ -11001,7 +11001,7 @@
         <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11065,19 +11065,19 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
         <v>80.70197082457096</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11223,16 +11223,16 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L43" t="n">
-        <v>47.43596908875769</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M43" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
         <v>66.5883684560963</v>
@@ -11299,22 +11299,22 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
         <v>80.70197082457096</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,16 +11460,16 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P46" t="n">
         <v>66.5883684560963</v>
@@ -22883,34 +22883,34 @@
         <v>107.3582211803319</v>
       </c>
       <c r="I6" t="n">
-        <v>82.13536774255608</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J6" t="n">
-        <v>79.12633608862856</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>56.29524403393702</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>37.54182911310821</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>114.3252943440434</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S6" t="n">
         <v>162.3030441088983</v>
@@ -22965,28 +22965,28 @@
         <v>142.7184689252781</v>
       </c>
       <c r="J7" t="n">
-        <v>97.06289100487388</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K7" t="n">
-        <v>79.82491575659759</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>71.94053294496764</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>62.89780050171086</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>78.61457070130248</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>86.52286261917671</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>116.0532158724207</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R7" t="n">
         <v>158.2569640235438</v>
@@ -23047,28 +23047,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>97.7044617900775</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>83.93651754288217</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>61.40621785032832</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>57.73942214949923</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>67.99165989453405</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>92.87880449446453</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>118.4074541392576</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>155.1487094361692</v>
+        <v>89.43228956318674</v>
       </c>
       <c r="S8" t="n">
         <v>187.0957390720419</v>
@@ -23126,25 +23126,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>54.71574566779194</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>26.7816267814875</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>11.7005031530698</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.11696897926959</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>35.67399088986284</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>74.27054889129279</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>68.19631326697174</v>
@@ -23205,22 +23205,22 @@
         <v>62.84687544559103</v>
       </c>
       <c r="K10" t="n">
-        <v>78.87216858632236</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>70.72134458638538</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>71.27454703832609</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>77.45546952732445</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>85.53105132392307</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>50.0235787634169</v>
@@ -23281,31 +23281,31 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J11" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>133.2157111723112</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S11" t="n">
         <v>179.1392278518137</v>
@@ -23357,13 +23357,13 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I12" t="n">
-        <v>75.36649093292084</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J12" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>102.1188968768846</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S12" t="n">
         <v>158.6512997408977</v>
@@ -23439,28 +23439,28 @@
         <v>137.761816287615</v>
       </c>
       <c r="J13" t="n">
-        <v>85.40996247914654</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K13" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.2516053991695</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R13" t="n">
         <v>150.8459592031442</v>
@@ -23518,31 +23518,31 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J14" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>133.2157111723112</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S14" t="n">
         <v>179.1392278518137</v>
@@ -23594,13 +23594,13 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I15" t="n">
-        <v>75.36649093292084</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J15" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,10 +23618,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>102.1188968768846</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S15" t="n">
         <v>158.6512997408977</v>
@@ -23676,25 +23676,25 @@
         <v>137.761816287615</v>
       </c>
       <c r="J16" t="n">
-        <v>85.40996247914654</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K16" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>36.90864702141808</v>
@@ -23758,22 +23758,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23837,7 +23837,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23922,13 +23922,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -23992,25 +23992,25 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -24068,10 +24068,10 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I21" t="n">
-        <v>75.36649093292084</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J21" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>56.59722706556381</v>
@@ -24150,28 +24150,28 @@
         <v>137.761816287615</v>
       </c>
       <c r="J22" t="n">
-        <v>85.40996247914654</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K22" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.2516053991695</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R22" t="n">
         <v>150.8459592031442</v>
@@ -24229,28 +24229,28 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J23" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>67.4992912993288</v>
@@ -24311,7 +24311,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>56.59722706556381</v>
@@ -24390,19 +24390,19 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K25" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -24466,25 +24466,25 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J26" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24545,10 +24545,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J27" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>56.59722706556381</v>
@@ -24630,16 +24630,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -24706,22 +24706,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24785,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24870,13 +24870,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -24943,25 +24943,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>67.4992912993288</v>
@@ -25016,13 +25016,13 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I33" t="n">
-        <v>75.36649093292084</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J33" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,10 +25040,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>102.1188968768846</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S33" t="n">
         <v>158.6512997408977</v>
@@ -25107,10 +25107,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -25177,31 +25177,31 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J35" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>133.2157111723112</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S35" t="n">
         <v>179.1392278518137</v>
@@ -25253,13 +25253,13 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I36" t="n">
-        <v>75.36649093292084</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J36" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>56.59722706556381</v>
@@ -25344,10 +25344,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -25417,22 +25417,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25490,13 +25490,13 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I39" t="n">
-        <v>75.36649093292084</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J39" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>56.59722706556381</v>
@@ -25575,7 +25575,7 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K40" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.2516053991695</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R40" t="n">
         <v>150.8459592031442</v>
@@ -25657,19 +25657,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>28.83625887535973</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09656339947139259</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -25730,10 +25730,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J42" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>56.59722706556381</v>
@@ -25821,10 +25821,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>37.67551094615368</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -25891,22 +25891,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -25967,10 +25967,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J45" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>56.59722706556381</v>
@@ -26052,16 +26052,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>303955.7733530647</v>
+        <v>354540.7157275961</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>231434.5411851175</v>
+        <v>354079.5673218013</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>266247.0164708933</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>268991.4207227589</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>320217.5571937765</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>299265.6012260412</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>296920.9395268711</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>300274.3486271901</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>320217.5571937765</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>298935.6993857197</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>283442.5906322608</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>311807.1670022476</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>321368.8363041368</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>309990.8679923426</v>
+        <v>346580.8369953832</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="C2" t="n">
-        <v>76660.3958800378</v>
+        <v>87500.0263888659</v>
       </c>
       <c r="D2" t="n">
-        <v>61334.73507935579</v>
+        <v>87615.81210864508</v>
       </c>
       <c r="E2" t="n">
-        <v>72612.82267388004</v>
+        <v>89827.2127862706</v>
       </c>
       <c r="F2" t="n">
-        <v>73200.90929927978</v>
+        <v>89827.21278627061</v>
       </c>
       <c r="G2" t="n">
-        <v>84177.93854306926</v>
+        <v>89827.21278627061</v>
       </c>
       <c r="H2" t="n">
-        <v>79688.23369284028</v>
+        <v>89827.21278627061</v>
       </c>
       <c r="I2" t="n">
-        <v>79185.80618587526</v>
+        <v>89827.21278627061</v>
       </c>
       <c r="J2" t="n">
-        <v>79904.39385022935</v>
+        <v>89827.2127862706</v>
       </c>
       <c r="K2" t="n">
-        <v>84177.93854306926</v>
+        <v>89827.21278627057</v>
       </c>
       <c r="L2" t="n">
-        <v>79617.54044134282</v>
+        <v>89827.21278627061</v>
       </c>
       <c r="M2" t="n">
-        <v>76297.58856560163</v>
+        <v>89827.21278627061</v>
       </c>
       <c r="N2" t="n">
-        <v>82375.7120734559</v>
+        <v>89827.21278627061</v>
       </c>
       <c r="O2" t="n">
-        <v>84424.64120957501</v>
+        <v>89827.21278627061</v>
       </c>
       <c r="P2" t="n">
-        <v>81986.50514276198</v>
+        <v>89827.2127862706</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>213791.1722776066</v>
       </c>
       <c r="D3" t="n">
-        <v>3894.578006269939</v>
+        <v>3894.578006269942</v>
       </c>
       <c r="E3" t="n">
         <v>69778.64573719917</v>
@@ -26420,46 +26420,46 @@
         <v>80630.55414858478</v>
       </c>
       <c r="C4" t="n">
-        <v>22867.65512625937</v>
+        <v>33707.28563508745</v>
       </c>
       <c r="D4" t="n">
-        <v>6540.51256081306</v>
+        <v>32821.58959010238</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>17214.39011239057</v>
       </c>
       <c r="F4" t="n">
-        <v>588.0866253997631</v>
+        <v>17214.39011239057</v>
       </c>
       <c r="G4" t="n">
-        <v>11565.11586918922</v>
+        <v>17214.39011239057</v>
       </c>
       <c r="H4" t="n">
-        <v>7075.411018960235</v>
+        <v>17214.39011239057</v>
       </c>
       <c r="I4" t="n">
-        <v>6572.983511995229</v>
+        <v>17214.39011239057</v>
       </c>
       <c r="J4" t="n">
-        <v>7291.571176349296</v>
+        <v>17214.39011239057</v>
       </c>
       <c r="K4" t="n">
-        <v>11565.11586918922</v>
+        <v>17214.39011239057</v>
       </c>
       <c r="L4" t="n">
-        <v>7004.717767462771</v>
+        <v>17214.39011239057</v>
       </c>
       <c r="M4" t="n">
-        <v>3684.765891721599</v>
+        <v>17214.39011239057</v>
       </c>
       <c r="N4" t="n">
-        <v>9762.889399575863</v>
+        <v>17214.39011239057</v>
       </c>
       <c r="O4" t="n">
-        <v>11811.818535695</v>
+        <v>17214.39011239057</v>
       </c>
       <c r="P4" t="n">
-        <v>9373.682468881945</v>
+        <v>17214.39011239057</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="C6" t="n">
-        <v>-198744.2363549748</v>
+        <v>-213436.9455089908</v>
       </c>
       <c r="D6" t="n">
-        <v>12054.70328151484</v>
+        <v>-2630.286824515922</v>
       </c>
       <c r="E6" t="n">
-        <v>-4276.578280670275</v>
+        <v>-18814.14167485934</v>
       </c>
       <c r="F6" t="n">
-        <v>65502.06745652886</v>
+        <v>50964.50406233984</v>
       </c>
       <c r="G6" t="n">
-        <v>65502.06745652889</v>
+        <v>50964.50406233984</v>
       </c>
       <c r="H6" t="n">
-        <v>65502.06745652889</v>
+        <v>50964.50406233984</v>
       </c>
       <c r="I6" t="n">
-        <v>65502.06745652888</v>
+        <v>50964.50406233984</v>
       </c>
       <c r="J6" t="n">
-        <v>65502.06745652889</v>
+        <v>50964.50406233984</v>
       </c>
       <c r="K6" t="n">
-        <v>65502.06745652889</v>
+        <v>50964.50406233981</v>
       </c>
       <c r="L6" t="n">
-        <v>65502.06745652889</v>
+        <v>50964.50406233984</v>
       </c>
       <c r="M6" t="n">
-        <v>65502.06745652888</v>
+        <v>50964.50406233984</v>
       </c>
       <c r="N6" t="n">
-        <v>65502.06745652888</v>
+        <v>50964.50406233984</v>
       </c>
       <c r="O6" t="n">
-        <v>65502.06745652886</v>
+        <v>50964.50406233984</v>
       </c>
       <c r="P6" t="n">
-        <v>65502.06745652888</v>
+        <v>50964.50406233984</v>
       </c>
     </row>
   </sheetData>
@@ -26965,7 +26965,7 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547541266571937</v>
+        <v>4.54754126657194</v>
       </c>
       <c r="E3" t="n">
         <v>86.85385259601865</v>
@@ -34140,7 +34140,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M41" t="n">
-        <v>230.2496698278013</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
@@ -34289,19 +34289,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J43" t="n">
-        <v>41.58545896024956</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K43" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L43" t="n">
-        <v>87.4487071924806</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M43" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N43" t="n">
-        <v>90.01003351907951</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O43" t="n">
         <v>83.13883450095931</v>
@@ -34377,7 +34377,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278014</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
@@ -34526,19 +34526,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024957</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K46" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>87.44870719248058</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M46" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907953</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O46" t="n">
         <v>83.13883450095931</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13113.69058561324</v>
+        <v>123370.2081498389</v>
       </c>
     </row>
     <row r="7">
@@ -11302,10 +11302,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>28.83625887535973</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947139259</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11460,13 +11460,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>47.43596908875769</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M46" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615368</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
         <v>55.31770395088348</v>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80630.55414858478</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="C2" t="n">
         <v>87500.0263888659</v>
@@ -26322,40 +26322,40 @@
         <v>87615.81210864508</v>
       </c>
       <c r="E2" t="n">
-        <v>89827.2127862706</v>
+        <v>89827.21278627058</v>
       </c>
       <c r="F2" t="n">
-        <v>89827.21278627061</v>
+        <v>89827.21278627058</v>
       </c>
       <c r="G2" t="n">
-        <v>89827.21278627061</v>
+        <v>89827.21278627058</v>
       </c>
       <c r="H2" t="n">
-        <v>89827.21278627061</v>
+        <v>89827.21278627058</v>
       </c>
       <c r="I2" t="n">
-        <v>89827.21278627061</v>
+        <v>89827.21278627058</v>
       </c>
       <c r="J2" t="n">
-        <v>89827.2127862706</v>
+        <v>89827.21278627058</v>
       </c>
       <c r="K2" t="n">
-        <v>89827.21278627057</v>
+        <v>89827.21278627058</v>
       </c>
       <c r="L2" t="n">
-        <v>89827.21278627061</v>
+        <v>89827.21278627058</v>
       </c>
       <c r="M2" t="n">
-        <v>89827.21278627061</v>
+        <v>89827.21278627058</v>
       </c>
       <c r="N2" t="n">
-        <v>89827.21278627061</v>
+        <v>89827.21278627058</v>
       </c>
       <c r="O2" t="n">
-        <v>89827.21278627061</v>
+        <v>89827.21278627058</v>
       </c>
       <c r="P2" t="n">
-        <v>89827.2127862706</v>
+        <v>89827.21278627058</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700346</v>
       </c>
       <c r="C6" t="n">
-        <v>-213436.9455089908</v>
+        <v>-200213.5072703764</v>
       </c>
       <c r="D6" t="n">
-        <v>-2630.286824515922</v>
+        <v>10586.20427091174</v>
       </c>
       <c r="E6" t="n">
-        <v>-18814.14167485934</v>
+        <v>-5730.334620089217</v>
       </c>
       <c r="F6" t="n">
-        <v>50964.50406233984</v>
+        <v>64048.31111710994</v>
       </c>
       <c r="G6" t="n">
-        <v>50964.50406233984</v>
+        <v>64048.31111710994</v>
       </c>
       <c r="H6" t="n">
-        <v>50964.50406233984</v>
+        <v>64048.31111710994</v>
       </c>
       <c r="I6" t="n">
-        <v>50964.50406233984</v>
+        <v>64048.31111710994</v>
       </c>
       <c r="J6" t="n">
-        <v>50964.50406233984</v>
+        <v>64048.31111710994</v>
       </c>
       <c r="K6" t="n">
-        <v>50964.50406233981</v>
+        <v>64048.31111710994</v>
       </c>
       <c r="L6" t="n">
-        <v>50964.50406233984</v>
+        <v>64048.31111710994</v>
       </c>
       <c r="M6" t="n">
-        <v>50964.50406233984</v>
+        <v>64048.31111710994</v>
       </c>
       <c r="N6" t="n">
-        <v>50964.50406233984</v>
+        <v>64048.31111710994</v>
       </c>
       <c r="O6" t="n">
-        <v>50964.50406233984</v>
+        <v>64048.31111710994</v>
       </c>
       <c r="P6" t="n">
-        <v>50964.50406233984</v>
+        <v>64048.31111710994</v>
       </c>
     </row>
   </sheetData>
@@ -34377,7 +34377,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278013</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
@@ -34526,19 +34526,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024956</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K46" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>87.4487071924806</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M46" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907951</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O46" t="n">
         <v>83.13883450095931</v>
